--- a/src/main/resources/01 Malzeme listesi.xlsx
+++ b/src/main/resources/01 Malzeme listesi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetoflu\Desktop\ahmtrdm\material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetoflu\Desktop\ahmtrdm\material\material\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688265FD-605E-4A6C-BB08-290F2CD4D649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7AB8A8-70E7-483F-BB3A-1F10A156FF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0D52DB73-6D49-4C18-8B3C-CA2A4EF74F3F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Malzeme Listesi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="g" localSheetId="0">'Malzeme Listesi'!#REF!</definedName>
+    <definedName name="aaa" localSheetId="0">'Malzeme Listesi'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Malzeme Listesi'!$C$1:$L$149</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="329">
   <si>
     <t>Ceramic</t>
   </si>
@@ -847,44 +847,12 @@
     <t>Seramik Mimari</t>
   </si>
   <si>
-    <t>Özellikler</t>
-  </si>
-  <si>
-    <t>Oksit Olmayan</t>
-  </si>
-  <si>
     <t>Alüminyum Nitrür (AIN)</t>
   </si>
   <si>
     <t>Aluminum Nitride (AIN)</t>
   </si>
   <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Oxide </t>
-  </si>
-  <si>
-    <t>Üretim</t>
-  </si>
-  <si>
-    <t>Manufacture</t>
-  </si>
-  <si>
-    <t>Pressure Sintered (Hot Pressed)
-Machinable</t>
-  </si>
-  <si>
-    <t>Basınç Sinterleme (Sıcak Presleme)
-İşlenebilir</t>
-  </si>
-  <si>
-    <t>Hot Pressed</t>
-  </si>
-  <si>
-    <t>Sıcak Presleme</t>
-  </si>
-  <si>
     <t>Boron Carbide (B4C)</t>
   </si>
   <si>
@@ -949,6 +917,114 @@
   </si>
   <si>
     <t>Ahşap</t>
+  </si>
+  <si>
+    <t>Malzeme Biçimi</t>
+  </si>
+  <si>
+    <t>Pişirme işlemi sonrası seramik malzemeler, yüksek sertlik, kırılganlık ve ısıya dayanıklılık gibi özellikler kazanır.</t>
+  </si>
+  <si>
+    <t>Nihai Özellikler</t>
+  </si>
+  <si>
+    <t>İlk Özellikler</t>
+  </si>
+  <si>
+    <t>Hem kompleks yüzey geometrilerine hem de hafif ama yüksek dayanımlı yapılara sahip olabilir. Ürünler genellikle yüksek mukavemet/ağırlık oranı, korozyon direnci, termal stabilite ve şekil verilebilirlik gibi özellikler taşır.</t>
+  </si>
+  <si>
+    <t>Hammadde, yapısal olarak iki temel bileşenden oluşur: sürekli faz olan matris (bağlayıcı) ve dağılmış faz olan takviye edici (fiber, partikül veya kumaş). İlk hallerinde, matris malzemeleri çoğunlukla sıvı veya viskoz halde reçineler (örneğin epoksi, polyester) olarak bulunur; takviye malzemeleri ise ipliksi (cam elyafı, karbon fiber), dokuma yüzey, keçe ya da toz biçiminde olabilir. Bu iki faz birleştirilmeden önce, kendi başlarına mekanik dayanımı düşük ve işlevsellikten uzaktır; esas yapı, birleştirme ve kürleme sürecinden sonra oluşur.</t>
+  </si>
+  <si>
+    <t>Hammadde, doğada bolca bulunan inorganik hammaddelerden (kil, kaolin, kuvars, feldspat) elde edilir. İlk halleri genellikle toz ya da granül formundadır; su ile karıştırıldığında plastisite kazanarak şekil verilebilir hâle gelir. Bu öncül hâl, genellikle amorf ve yumuşaktır. Biçimlendirilmeden önceki ham form “yeşil gövde” olarak adlandırılır ve bu aşama, seramiğin şekillendirilmeye en uygun olduğu evredir.</t>
+  </si>
+  <si>
+    <t>Hammadde,  çimento, agrega (kum, çakıl, kırma taş), su ve gerekirse katkı maddelerinin belirli oranlarda karıştırılmasıyla elde edilen kompozit bir malzemedir. İlk hali plastik kıvamda, akışkan bir kütle olarak biçim verilmeye uygun şekildedir. Bu form, döküm kalıplarına yerleştirilmeye olanak tanır. Donmadan önceki bu “taze beton” evresi, şekil alma kabiliyetinin en yüksek olduğu aşamadır.</t>
+  </si>
+  <si>
+    <t>Kolon, kiriş, döşeme, kabuk yapı, kütle bloklar veya ince zarif yüzeyler olabilir. Beton, yüksek basınç dayanımı, yangına karşı direnç, kalıpla üretime uygunluk ve maliyet etkinliği gibi avantajlara sahiptir. Ayrıca yüzey işlemleriyle (asitle yıkama, polisaj, pigmentasyon) estetik olarak da zenginleştirilebilir.</t>
+  </si>
+  <si>
+    <t>Hammadde, başlıca silika (SiO₂), soda (Na₂CO₃) ve kireçtaşının (CaCO₃) yüksek sıcaklıklarda eritilmesiyle elde edilen amorfl (düzensiz atom yapılı) inorganik bir malzemedir. İlk hali viskoz, yarı akışkan ve şekillendirmeye uygun ergimiş bir hamurdur. Soğuma süreci sırasında kristalleşme göstermeden katılaşır; bu nedenle camsı yapı karakterini korur.</t>
+  </si>
+  <si>
+    <t>Saydam ya da opak; düz, eğrisel veya organik formlarda olabilir. Cam, optik şeffaflığı, kimyasal inertliği, darbe ve ısıya karşı işlenmiş direnç formları ile hem yapısal hem de dekoratif tasarımlarda çok yönlü kullanım imkânı sunar.</t>
+  </si>
+  <si>
+    <t>Hammadde, doğal lif yapısına sahip bir biyomalzemedir. İlk hali post olarak adlandırılır ve doğal yağ, protein, su ve kolajen lifleri içerir. Bu ham post, çabuk bozulur ve fiziksel olarak elastik, gözenekli ve düzensiz kalınlıktadır. Derinin ilk biçimi yüzeysel olarak düzensiz ve hamdır; işlem görmeden kullanılamaz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esnek yüzeyler, sarılabilir kabuk formunda ya da katlanabilir yapılar hâlindedir. </t>
+  </si>
+  <si>
+    <t>Hammadde, doğada cevher hâlinde bulunur; saf hâlde nadiren rastlanır. Yarı mamul biçimler, yüksek yoğunluk, iletkenlik ve dövülebilirlik gibi karakteristik fiziksel özelliklerle tanımlanır. Saf veya alaşım hâlinde üretildiklerinde, şekillendirme işlemleri öncesinde plastik deformasyona uygundurlar.</t>
+  </si>
+  <si>
+    <t>Yüksek dayanım, işlenebilirlik, geri dönüştürülebilirlik ve termal/elektriksel performans gibi avantajlar sunar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammadde, Temel olarak ağaç liflerinden elde edilen selülozik hamurun işlenmesiyle üretilen yarı rijit bir levha malzemesidir.  İlk hali, genellikle rulo veya büyük boy levha formundadır. Kalınlığı, mukavvadan ince kartonlara kadar çeşitlilik gösterir. </t>
+  </si>
+  <si>
+    <t>Hafifliği, geri dönüştürülebilirliği, baskı dostu yüzeyi ve katlanabilirliği ile sürdürülebilir tasarım uygulamalarında sıklıkla tercih edilir.</t>
+  </si>
+  <si>
+    <t>Hammadde,  İlk halleri, kimyasal reaksiyonlarla (polimerizasyon) üretilmiş uzun moleküler zincirlerden oluşur. Termoplastikler tekrar eritilebilirken; termosetler bir kez şekillendikten sonra sabit kalır. Biçim verilmeden önceki aramamül formları granül torbalar hâlindedir.</t>
+  </si>
+  <si>
+    <t>Hafiflik, maliyet avantajı, seri üretime uygunluk, renk ve yüzey çeşitliliği, korozyon direnci gibi özelliklerine kavuşur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammadde, doğada doğal oluşum süreçleriyle meydana gelen katı ve yoğun inorganik kayaçlardır. </t>
+  </si>
+  <si>
+    <t>Doğallık hissi, termal kütle, uzun ömür, yangın direnci ve estetik çeşitlilik gibi avantajları bulunmaktadır.</t>
+  </si>
+  <si>
+    <t>Hammadde, liflerin iplik hâline getirilip çeşitli örgü, dokuma veya dokusuz (nonwoven) yüzeyler oluşturmasıyla elde edilir. Lifler iplik haline getirilmeden önce dağınık, yumuşak ve esnek bir yapıdadır. Biçim kazanmadan önceki bu ham hâl, tekstilin mukavemet ve elastikiyet gibi özelliklerinin belirlenmesinde temel aşamadır.</t>
+  </si>
+  <si>
+    <t>Esneklik, nem geçirgenliği, hava geçirgenliği, UV dayanımı, alev geciktiricilik ve antibakteriyel davranış gibi performanslar, lif türüne ve son işlemlere göre şekillenir.</t>
+  </si>
+  <si>
+    <t>Hammadde, doğal olarak yetişen ağaç gövdelerinden elde edilen organik ve lifli bir malzemedir. Tomruklar işlenmeden önce nem oranı yüksektir ve bu haliyle şekil kararsızlığı gösterebilir. Biçimlendirilmeye uygun hale gelmeleri için genellikle fırınlanarak kurutulur. Doğal desenleri, damar yapısı ve yüzey dokusu korunarak işlenir.</t>
+  </si>
+  <si>
+    <t>Ahşap, doğallık hissi, işlenebilirlik, estetik zenginlik, yenilenebilirlik ve termal/akustik konfor gibi nitelikleriyle hem geleneksel hem çağdaş tasarımda temel malzemelerden biridir.</t>
+  </si>
+  <si>
+    <t>Toz, Agrega, Çamur</t>
+  </si>
+  <si>
+    <t>Post, Kumaş/Mat</t>
+  </si>
+  <si>
+    <t>Toz, Granül/Pellet, Grog, Çamur</t>
+  </si>
+  <si>
+    <t>Toz, Granül/Pelet, Yarı kürlü katmanlı kumaş/Mat/Folyo, SMC</t>
+  </si>
+  <si>
+    <t>Toz, Granül, Ergimiş, SMC</t>
+  </si>
+  <si>
+    <t>Toz, Granül, Ergimiş, Külçe (ingot), Tel, Profil, SMC, Folyo/Film</t>
+  </si>
+  <si>
+    <t>Hamur,  SMC, Folyo/Kağıt</t>
+  </si>
+  <si>
+    <t>Toz, Granül/Pellet, Ergimiş, Tel, Profil, SMC, Folyo/Film</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kum, Agrega, Plaka,  Blok, </t>
+  </si>
+  <si>
+    <t>Elyaf/fiber/İplik, Kumaş/Mat/ Folyo</t>
+  </si>
+  <si>
+    <t>Kesilmiş kütük (tomruk), Kereste, Blok, Plaka, SMC, Profil, Folyo/Band/Kaplama</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1073,8 +1149,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1401,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD43BDA2-CC13-44A0-8D90-BCFC18A32DB0}">
-  <dimension ref="B1:N149"/>
+  <dimension ref="B1:O149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J152" sqref="J152"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1414,15 +1502,17 @@
     <col min="3" max="3" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="31.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="3" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="52" width="5.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="102.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.42578125" style="1" customWidth="1"/>
+    <col min="16" max="52" width="5.7109375" style="1" customWidth="1"/>
     <col min="53" max="53" width="2.7109375" style="1" customWidth="1"/>
     <col min="54" max="54" width="5.7109375" style="1" customWidth="1"/>
     <col min="55" max="55" width="4.7109375" style="1" customWidth="1"/>
@@ -1432,34 +1522,34 @@
     <col min="123" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
       <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
       <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
         <v>249</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>276</v>
-      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="11"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
@@ -1469,15 +1559,18 @@
         <v>252</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="63" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>0</v>
@@ -1487,71 +1580,63 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="H4" s="12"/>
+        <v>270</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K4" s="8">
         <f>ROW()-ROW($K$3)</f>
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D5" s="8">
         <f t="shared" ref="D5:D6" si="0">ROW()-ROW($D$3)</f>
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="H5" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ref="K5:K6" si="1">ROW()-ROW($K$3)</f>
         <v>2</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1559,14 +1644,14 @@
       <c r="E6" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="12"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" si="1"/>
@@ -1577,8 +1662,9 @@
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D7" s="8">
         <f t="shared" ref="D7:D64" si="2">ROW()-ROW($D$3)</f>
         <v>4</v>
@@ -1586,14 +1672,14 @@
       <c r="E7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="12"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K64" si="3">ROW()-ROW($K$3)</f>
@@ -1604,8 +1690,9 @@
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D8" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1613,14 +1700,14 @@
       <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" si="3"/>
@@ -1631,8 +1718,9 @@
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D9" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1640,14 +1728,14 @@
       <c r="E9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" si="3"/>
@@ -1658,10 +1746,11 @@
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="2:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>1</v>
@@ -1673,14 +1762,14 @@
       <c r="E10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="12"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" si="3"/>
@@ -1689,10 +1778,17 @@
       <c r="L10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M10" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D11" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1700,14 +1796,14 @@
       <c r="E11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="12"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" si="3"/>
@@ -1718,8 +1814,9 @@
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D12" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1727,14 +1824,14 @@
       <c r="E12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="12"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="3"/>
@@ -1745,8 +1842,9 @@
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D13" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1754,14 +1852,14 @@
       <c r="E13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="12"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" si="3"/>
@@ -1772,8 +1870,9 @@
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D14" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1781,14 +1880,14 @@
       <c r="E14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="12"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" si="3"/>
@@ -1799,8 +1898,9 @@
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D15" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1808,14 +1908,14 @@
       <c r="E15" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="12"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" si="3"/>
@@ -1826,8 +1926,9 @@
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D16" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1835,14 +1936,14 @@
       <c r="E16" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="12"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" si="3"/>
@@ -1853,8 +1954,9 @@
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D17" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1862,14 +1964,14 @@
       <c r="E17" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" si="3"/>
@@ -1880,8 +1982,9 @@
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D18" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1889,14 +1992,14 @@
       <c r="E18" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="12"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" si="3"/>
@@ -1907,10 +2010,11 @@
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="2:15" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
@@ -1922,14 +2026,14 @@
       <c r="E19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="12"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" si="3"/>
@@ -1938,10 +2042,17 @@
       <c r="L19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M19" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D20" s="8">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1949,14 +2060,14 @@
       <c r="E20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="12"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" si="3"/>
@@ -1967,8 +2078,9 @@
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D21" s="8">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1976,14 +2088,14 @@
       <c r="E21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="12"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" si="3"/>
@@ -1994,8 +2106,9 @@
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D22" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2003,14 +2116,14 @@
       <c r="E22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="12"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" si="3"/>
@@ -2021,8 +2134,9 @@
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D23" s="8">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2030,14 +2144,14 @@
       <c r="E23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="12"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" si="3"/>
@@ -2048,8 +2162,9 @@
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D24" s="8">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2057,14 +2172,14 @@
       <c r="E24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="12"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" si="3"/>
@@ -2075,8 +2190,9 @@
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D25" s="8">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2084,14 +2200,14 @@
       <c r="E25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="12"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" si="3"/>
@@ -2102,8 +2218,9 @@
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D26" s="8">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2111,14 +2228,14 @@
       <c r="E26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="12"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" si="3"/>
@@ -2129,8 +2246,9 @@
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D27" s="8">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -2138,14 +2256,14 @@
       <c r="E27" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="12"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" si="3"/>
@@ -2156,8 +2274,9 @@
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D28" s="8">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -2165,14 +2284,14 @@
       <c r="E28" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="12"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" si="3"/>
@@ -2183,10 +2302,11 @@
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="2:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>3</v>
@@ -2198,14 +2318,14 @@
       <c r="E29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="12"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" si="3"/>
@@ -2214,10 +2334,17 @@
       <c r="L29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M29" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D30" s="8">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2225,14 +2352,14 @@
       <c r="E30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="12"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" si="3"/>
@@ -2243,8 +2370,9 @@
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D31" s="8">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -2252,14 +2380,14 @@
       <c r="E31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="12"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" si="3"/>
@@ -2270,8 +2398,9 @@
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D32" s="8">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -2279,14 +2408,14 @@
       <c r="E32" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="12"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K32" s="8">
         <f t="shared" si="3"/>
@@ -2297,8 +2426,9 @@
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D33" s="8">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -2306,14 +2436,14 @@
       <c r="E33" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="12"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K33" s="8">
         <f t="shared" si="3"/>
@@ -2324,8 +2454,9 @@
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D34" s="8">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -2333,14 +2464,14 @@
       <c r="E34" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="12"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K34" s="8">
         <f t="shared" si="3"/>
@@ -2351,8 +2482,9 @@
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D35" s="8">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -2360,14 +2492,14 @@
       <c r="E35" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="12"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K35" s="8">
         <f t="shared" si="3"/>
@@ -2378,8 +2510,9 @@
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D36" s="8">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -2387,14 +2520,14 @@
       <c r="E36" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="12"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K36" s="8">
         <f t="shared" si="3"/>
@@ -2405,8 +2538,9 @@
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D37" s="8">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -2414,14 +2548,14 @@
       <c r="E37" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="12"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K37" s="8">
         <f t="shared" si="3"/>
@@ -2432,8 +2566,9 @@
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D38" s="8">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2441,14 +2576,14 @@
       <c r="E38" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="12"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K38" s="8">
         <f t="shared" si="3"/>
@@ -2459,8 +2594,9 @@
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D39" s="8">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -2468,14 +2604,14 @@
       <c r="E39" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="12"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K39" s="8">
         <f t="shared" si="3"/>
@@ -2486,8 +2622,9 @@
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D40" s="8">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -2495,14 +2632,14 @@
       <c r="E40" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="12"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="10"/>
       <c r="I40" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K40" s="8">
         <f t="shared" si="3"/>
@@ -2513,8 +2650,9 @@
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D41" s="8">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -2522,14 +2660,14 @@
       <c r="E41" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="12"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K41" s="8">
         <f t="shared" si="3"/>
@@ -2540,10 +2678,11 @@
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="2:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>4</v>
@@ -2555,14 +2694,14 @@
       <c r="E42" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="12"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K42" s="8">
         <f t="shared" si="3"/>
@@ -2571,10 +2710,17 @@
       <c r="L42" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M42" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D43" s="8">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -2582,14 +2728,14 @@
       <c r="E43" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="12"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K43" s="8">
         <f t="shared" si="3"/>
@@ -2600,8 +2746,9 @@
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D44" s="8">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -2609,14 +2756,14 @@
       <c r="E44" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="12"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K44" s="8">
         <f t="shared" si="3"/>
@@ -2627,8 +2774,9 @@
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D45" s="8">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -2636,14 +2784,14 @@
       <c r="E45" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="12"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K45" s="8">
         <f t="shared" si="3"/>
@@ -2654,8 +2802,9 @@
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D46" s="8">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -2663,14 +2812,14 @@
       <c r="E46" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="12"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K46" s="8">
         <f t="shared" si="3"/>
@@ -2681,8 +2830,9 @@
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D47" s="8">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -2690,14 +2840,14 @@
       <c r="E47" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="12"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K47" s="8">
         <f t="shared" si="3"/>
@@ -2708,8 +2858,9 @@
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D48" s="8">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -2717,14 +2868,14 @@
       <c r="E48" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="12"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K48" s="8">
         <f t="shared" si="3"/>
@@ -2735,8 +2886,9 @@
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D49" s="8">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -2744,14 +2896,14 @@
       <c r="E49" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="12"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K49" s="8">
         <f t="shared" si="3"/>
@@ -2762,8 +2914,9 @@
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D50" s="8">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -2771,14 +2924,14 @@
       <c r="E50" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="12"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="10"/>
       <c r="I50" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K50" s="8">
         <f t="shared" si="3"/>
@@ -2789,10 +2942,11 @@
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="2:15" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>5</v>
@@ -2804,11 +2958,11 @@
       <c r="E51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="12"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>5</v>
@@ -2820,10 +2974,17 @@
       <c r="L51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M51" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D52" s="8">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -2831,11 +2992,11 @@
       <c r="E52" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="12"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="10"/>
       <c r="I52" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>5</v>
@@ -2849,8 +3010,9 @@
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D53" s="8">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -2858,11 +3020,11 @@
       <c r="E53" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="12"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="10"/>
       <c r="I53" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>5</v>
@@ -2876,8 +3038,9 @@
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D54" s="8">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -2885,11 +3048,11 @@
       <c r="E54" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="12"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="10"/>
       <c r="I54" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>5</v>
@@ -2903,8 +3066,9 @@
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="9"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D55" s="8">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -2912,11 +3076,11 @@
       <c r="E55" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="12"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>5</v>
@@ -2930,8 +3094,9 @@
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="9"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D56" s="8">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -2939,11 +3104,11 @@
       <c r="E56" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="12"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>5</v>
@@ -2957,8 +3122,9 @@
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="9"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D57" s="8">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -2966,11 +3132,11 @@
       <c r="E57" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="12"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="10"/>
       <c r="I57" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>5</v>
@@ -2984,8 +3150,9 @@
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="9"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D58" s="8">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -2993,11 +3160,11 @@
       <c r="E58" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="12"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="10"/>
       <c r="I58" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>5</v>
@@ -3011,8 +3178,9 @@
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="9"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D59" s="8">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -3020,11 +3188,11 @@
       <c r="E59" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="12"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="10"/>
       <c r="I59" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>5</v>
@@ -3038,8 +3206,9 @@
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="9"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D60" s="8">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -3047,11 +3216,11 @@
       <c r="E60" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="12"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="10"/>
       <c r="I60" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>5</v>
@@ -3065,8 +3234,9 @@
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="9"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D61" s="8">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -3074,11 +3244,11 @@
       <c r="E61" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="12"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>5</v>
@@ -3092,8 +3262,9 @@
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="9"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D62" s="8">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -3101,11 +3272,11 @@
       <c r="E62" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="12"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>5</v>
@@ -3119,8 +3290,9 @@
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="9"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D63" s="8">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -3128,11 +3300,11 @@
       <c r="E63" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="12"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="10"/>
       <c r="I63" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>5</v>
@@ -3146,8 +3318,9 @@
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="9"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D64" s="8">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -3155,11 +3328,11 @@
       <c r="E64" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="12"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="10"/>
       <c r="I64" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>5</v>
@@ -3173,8 +3346,9 @@
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="9"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D65" s="8">
         <f t="shared" ref="D65:D120" si="4">ROW()-ROW($D$3)</f>
         <v>62</v>
@@ -3182,11 +3356,11 @@
       <c r="E65" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="12"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="10"/>
       <c r="I65" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>5</v>
@@ -3200,8 +3374,9 @@
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="9"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D66" s="8">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -3209,11 +3384,11 @@
       <c r="E66" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="12"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="10"/>
       <c r="I66" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>5</v>
@@ -3227,8 +3402,9 @@
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="9"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D67" s="8">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -3236,11 +3412,11 @@
       <c r="E67" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="12"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="10"/>
       <c r="I67" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>5</v>
@@ -3254,8 +3430,9 @@
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="9"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D68" s="8">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -3263,11 +3440,11 @@
       <c r="E68" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="12"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="10"/>
       <c r="I68" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>5</v>
@@ -3281,8 +3458,9 @@
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="9"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D69" s="8">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -3290,11 +3468,11 @@
       <c r="E69" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="12"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="10"/>
       <c r="I69" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>5</v>
@@ -3308,8 +3486,9 @@
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="9"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D70" s="8">
         <f t="shared" si="4"/>
         <v>67</v>
@@ -3317,11 +3496,11 @@
       <c r="E70" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="12"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="10"/>
       <c r="I70" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>5</v>
@@ -3335,8 +3514,9 @@
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="9"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D71" s="8">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -3344,11 +3524,11 @@
       <c r="E71" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="12"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="10"/>
       <c r="I71" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>5</v>
@@ -3362,8 +3542,9 @@
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="9"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D72" s="8">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -3371,11 +3552,11 @@
       <c r="E72" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="12"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="10"/>
       <c r="I72" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>5</v>
@@ -3389,8 +3570,9 @@
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="9"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D73" s="8">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -3398,11 +3580,11 @@
       <c r="E73" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="12"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="10"/>
       <c r="I73" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>5</v>
@@ -3416,8 +3598,9 @@
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="9"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D74" s="8">
         <f t="shared" si="4"/>
         <v>71</v>
@@ -3425,11 +3608,11 @@
       <c r="E74" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="12"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="10"/>
       <c r="I74" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>5</v>
@@ -3443,8 +3626,9 @@
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="9"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D75" s="8">
         <f t="shared" si="4"/>
         <v>72</v>
@@ -3452,11 +3636,11 @@
       <c r="E75" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="12"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="10"/>
       <c r="I75" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>5</v>
@@ -3470,10 +3654,11 @@
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="9"/>
+    </row>
+    <row r="76" spans="2:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>6</v>
@@ -3485,11 +3670,11 @@
       <c r="E76" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="12"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="10"/>
       <c r="I76" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>7</v>
@@ -3501,10 +3686,17 @@
       <c r="L76" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M76" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="O76" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D77" s="8">
         <f t="shared" si="4"/>
         <v>74</v>
@@ -3512,11 +3704,11 @@
       <c r="E77" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="12"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="10"/>
       <c r="I77" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>7</v>
@@ -3530,8 +3722,9 @@
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O77" s="9"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D78" s="8">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -3539,11 +3732,11 @@
       <c r="E78" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="12"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="10"/>
       <c r="I78" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>7</v>
@@ -3557,8 +3750,9 @@
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="9"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D79" s="8">
         <f t="shared" si="4"/>
         <v>76</v>
@@ -3566,11 +3760,11 @@
       <c r="E79" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="12"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="10"/>
       <c r="I79" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>7</v>
@@ -3584,10 +3778,11 @@
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="9"/>
+    </row>
+    <row r="80" spans="2:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>8</v>
@@ -3599,14 +3794,14 @@
       <c r="E80" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="12"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="10"/>
       <c r="I80" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J80" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K80" s="8">
         <f t="shared" si="5"/>
@@ -3615,10 +3810,17 @@
       <c r="L80" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-    </row>
-    <row r="81" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="M80" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D81" s="8">
         <f t="shared" si="4"/>
         <v>78</v>
@@ -3626,14 +3828,14 @@
       <c r="E81" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="12"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="10"/>
       <c r="I81" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J81" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K81" s="8">
         <f t="shared" si="5"/>
@@ -3644,8 +3846,9 @@
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
-    </row>
-    <row r="82" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="9"/>
+    </row>
+    <row r="82" spans="4:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D82" s="8">
         <f t="shared" si="4"/>
         <v>79</v>
@@ -3653,14 +3856,14 @@
       <c r="E82" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="12"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="10"/>
       <c r="I82" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J82" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K82" s="8">
         <f t="shared" si="5"/>
@@ -3671,8 +3874,9 @@
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
-    </row>
-    <row r="83" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="9"/>
+    </row>
+    <row r="83" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D83" s="8">
         <f t="shared" si="4"/>
         <v>80</v>
@@ -3680,14 +3884,14 @@
       <c r="E83" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="12"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="10"/>
       <c r="I83" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J83" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K83" s="8">
         <f t="shared" si="5"/>
@@ -3698,8 +3902,9 @@
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
-    </row>
-    <row r="84" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O83" s="9"/>
+    </row>
+    <row r="84" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D84" s="8">
         <f t="shared" si="4"/>
         <v>81</v>
@@ -3707,14 +3912,14 @@
       <c r="E84" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="12"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="10"/>
       <c r="I84" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J84" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K84" s="8">
         <f t="shared" si="5"/>
@@ -3725,8 +3930,9 @@
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
-    </row>
-    <row r="85" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O84" s="9"/>
+    </row>
+    <row r="85" spans="4:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D85" s="8">
         <f t="shared" si="4"/>
         <v>82</v>
@@ -3734,14 +3940,14 @@
       <c r="E85" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="12"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J85" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K85" s="8">
         <f t="shared" si="5"/>
@@ -3752,8 +3958,9 @@
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
-    </row>
-    <row r="86" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O85" s="9"/>
+    </row>
+    <row r="86" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D86" s="8">
         <f t="shared" si="4"/>
         <v>83</v>
@@ -3761,14 +3968,14 @@
       <c r="E86" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="12"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="10"/>
       <c r="I86" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J86" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K86" s="8">
         <f t="shared" si="5"/>
@@ -3779,8 +3986,9 @@
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
-    </row>
-    <row r="87" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="9"/>
+    </row>
+    <row r="87" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D87" s="8">
         <f t="shared" si="4"/>
         <v>84</v>
@@ -3788,14 +3996,14 @@
       <c r="E87" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="12"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="10"/>
       <c r="I87" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J87" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K87" s="8">
         <f t="shared" si="5"/>
@@ -3806,8 +4014,9 @@
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
-    </row>
-    <row r="88" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O87" s="9"/>
+    </row>
+    <row r="88" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D88" s="8">
         <f t="shared" si="4"/>
         <v>85</v>
@@ -3815,14 +4024,14 @@
       <c r="E88" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="12"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="10"/>
       <c r="I88" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J88" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K88" s="8">
         <f t="shared" si="5"/>
@@ -3833,8 +4042,9 @@
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
-    </row>
-    <row r="89" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="9"/>
+    </row>
+    <row r="89" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D89" s="8">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -3842,14 +4052,14 @@
       <c r="E89" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="12"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="10"/>
       <c r="I89" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J89" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K89" s="8">
         <f t="shared" si="5"/>
@@ -3860,8 +4070,9 @@
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
-    </row>
-    <row r="90" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O89" s="9"/>
+    </row>
+    <row r="90" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D90" s="8">
         <f t="shared" si="4"/>
         <v>87</v>
@@ -3869,14 +4080,14 @@
       <c r="E90" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="12"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="10"/>
       <c r="I90" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J90" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K90" s="8">
         <f t="shared" si="5"/>
@@ -3887,8 +4098,9 @@
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
-    </row>
-    <row r="91" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O90" s="9"/>
+    </row>
+    <row r="91" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D91" s="8">
         <f t="shared" si="4"/>
         <v>88</v>
@@ -3896,14 +4108,14 @@
       <c r="E91" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="12"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="10"/>
       <c r="I91" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J91" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K91" s="8">
         <f t="shared" si="5"/>
@@ -3914,8 +4126,9 @@
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
-    </row>
-    <row r="92" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="9"/>
+    </row>
+    <row r="92" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D92" s="8">
         <f t="shared" si="4"/>
         <v>89</v>
@@ -3923,14 +4136,14 @@
       <c r="E92" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="12"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="10"/>
       <c r="I92" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J92" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K92" s="8">
         <f t="shared" si="5"/>
@@ -3941,8 +4154,9 @@
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
-    </row>
-    <row r="93" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="9"/>
+    </row>
+    <row r="93" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D93" s="8">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -3950,14 +4164,14 @@
       <c r="E93" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="12"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="10"/>
       <c r="I93" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J93" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K93" s="8">
         <f t="shared" si="5"/>
@@ -3968,8 +4182,9 @@
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
-    </row>
-    <row r="94" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="9"/>
+    </row>
+    <row r="94" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D94" s="8">
         <f t="shared" si="4"/>
         <v>91</v>
@@ -3977,14 +4192,14 @@
       <c r="E94" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="12"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="10"/>
       <c r="I94" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J94" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K94" s="8">
         <f t="shared" si="5"/>
@@ -3995,8 +4210,9 @@
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
-    </row>
-    <row r="95" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="9"/>
+    </row>
+    <row r="95" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D95" s="8">
         <f t="shared" si="4"/>
         <v>92</v>
@@ -4004,14 +4220,14 @@
       <c r="E95" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="12"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="10"/>
       <c r="I95" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J95" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K95" s="8">
         <f t="shared" si="5"/>
@@ -4022,8 +4238,9 @@
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
-    </row>
-    <row r="96" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="9"/>
+    </row>
+    <row r="96" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D96" s="8">
         <f t="shared" si="4"/>
         <v>93</v>
@@ -4031,14 +4248,14 @@
       <c r="E96" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="12"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="10"/>
       <c r="I96" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J96" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K96" s="8">
         <f t="shared" si="5"/>
@@ -4049,8 +4266,9 @@
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="9"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D97" s="8">
         <f t="shared" si="4"/>
         <v>94</v>
@@ -4058,14 +4276,14 @@
       <c r="E97" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="12"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="10"/>
       <c r="I97" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J97" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K97" s="8">
         <f t="shared" si="5"/>
@@ -4076,8 +4294,9 @@
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O97" s="9"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D98" s="8">
         <f t="shared" si="4"/>
         <v>95</v>
@@ -4085,14 +4304,14 @@
       <c r="E98" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="12"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="10"/>
       <c r="I98" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J98" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K98" s="8">
         <f t="shared" si="5"/>
@@ -4103,8 +4322,9 @@
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="9"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D99" s="8">
         <f t="shared" si="4"/>
         <v>96</v>
@@ -4112,14 +4332,14 @@
       <c r="E99" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="12"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="10"/>
       <c r="I99" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J99" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K99" s="8">
         <f t="shared" si="5"/>
@@ -4130,8 +4350,9 @@
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O99" s="9"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D100" s="8">
         <f t="shared" si="4"/>
         <v>97</v>
@@ -4139,14 +4360,14 @@
       <c r="E100" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="12"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="10"/>
       <c r="I100" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J100" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K100" s="8">
         <f t="shared" si="5"/>
@@ -4157,8 +4378,9 @@
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O100" s="9"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D101" s="8">
         <f t="shared" si="4"/>
         <v>98</v>
@@ -4166,14 +4388,14 @@
       <c r="E101" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="12"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="10"/>
       <c r="I101" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J101" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K101" s="8">
         <f t="shared" si="5"/>
@@ -4184,8 +4406,9 @@
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="9"/>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D102" s="8">
         <f t="shared" si="4"/>
         <v>99</v>
@@ -4193,14 +4416,14 @@
       <c r="E102" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="12"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="10"/>
       <c r="I102" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J102" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K102" s="8">
         <f t="shared" si="5"/>
@@ -4211,8 +4434,9 @@
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O102" s="9"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D103" s="8">
         <f t="shared" si="4"/>
         <v>100</v>
@@ -4220,14 +4444,14 @@
       <c r="E103" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="12"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="10"/>
       <c r="I103" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J103" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K103" s="8">
         <f t="shared" si="5"/>
@@ -4238,8 +4462,9 @@
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O103" s="9"/>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D104" s="8">
         <f t="shared" si="4"/>
         <v>101</v>
@@ -4247,14 +4472,14 @@
       <c r="E104" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="12"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="10"/>
       <c r="I104" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J104" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K104" s="8">
         <f t="shared" si="5"/>
@@ -4265,8 +4490,9 @@
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O104" s="9"/>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D105" s="8">
         <f t="shared" si="4"/>
         <v>102</v>
@@ -4274,14 +4500,14 @@
       <c r="E105" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="12"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="10"/>
       <c r="I105" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J105" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K105" s="8">
         <f t="shared" si="5"/>
@@ -4292,8 +4518,9 @@
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O105" s="9"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D106" s="8">
         <f t="shared" si="4"/>
         <v>103</v>
@@ -4301,14 +4528,14 @@
       <c r="E106" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="12"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="10"/>
       <c r="I106" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J106" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J106" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K106" s="8">
         <f t="shared" si="5"/>
@@ -4319,8 +4546,9 @@
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O106" s="9"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D107" s="8">
         <f t="shared" si="4"/>
         <v>104</v>
@@ -4328,14 +4556,14 @@
       <c r="E107" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="12"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="10"/>
       <c r="I107" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J107" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K107" s="8">
         <f t="shared" si="5"/>
@@ -4346,8 +4574,9 @@
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O107" s="9"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D108" s="8">
         <f t="shared" si="4"/>
         <v>105</v>
@@ -4355,14 +4584,14 @@
       <c r="E108" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="12"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="10"/>
       <c r="I108" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J108" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J108" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K108" s="8">
         <f t="shared" si="5"/>
@@ -4373,10 +4602,11 @@
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O108" s="9"/>
+    </row>
+    <row r="109" spans="2:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>9</v>
@@ -4388,14 +4618,14 @@
       <c r="E109" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="12"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="10"/>
       <c r="I109" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J109" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K109" s="8">
         <f t="shared" si="5"/>
@@ -4404,10 +4634,17 @@
       <c r="L109" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M109" s="9"/>
-      <c r="N109" s="9"/>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M109" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="O109" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D110" s="8">
         <f t="shared" si="4"/>
         <v>107</v>
@@ -4415,14 +4652,14 @@
       <c r="E110" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="12"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="10"/>
       <c r="I110" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J110" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K110" s="8">
         <f t="shared" si="5"/>
@@ -4433,8 +4670,9 @@
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O110" s="9"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D111" s="8">
         <f t="shared" si="4"/>
         <v>108</v>
@@ -4442,14 +4680,14 @@
       <c r="E111" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="12"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="10"/>
       <c r="I111" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J111" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K111" s="8">
         <f t="shared" si="5"/>
@@ -4460,8 +4698,9 @@
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O111" s="9"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D112" s="8">
         <f t="shared" si="4"/>
         <v>109</v>
@@ -4469,14 +4708,14 @@
       <c r="E112" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="12"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="10"/>
       <c r="I112" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J112" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="J112" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K112" s="8">
         <f t="shared" si="5"/>
@@ -4487,8 +4726,9 @@
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="9"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D113" s="8">
         <f t="shared" si="4"/>
         <v>110</v>
@@ -4496,14 +4736,14 @@
       <c r="E113" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="12"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="10"/>
       <c r="I113" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J113" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="J113" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K113" s="8">
         <f t="shared" si="5"/>
@@ -4514,8 +4754,9 @@
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="9"/>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D114" s="8">
         <f t="shared" si="4"/>
         <v>111</v>
@@ -4523,14 +4764,14 @@
       <c r="E114" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="12"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="10"/>
       <c r="I114" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J114" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K114" s="8">
         <f t="shared" si="5"/>
@@ -4541,8 +4782,9 @@
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O114" s="9"/>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D115" s="8">
         <f t="shared" si="4"/>
         <v>112</v>
@@ -4550,14 +4792,14 @@
       <c r="E115" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="12"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="10"/>
       <c r="I115" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J115" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K115" s="8">
         <f t="shared" si="5"/>
@@ -4568,8 +4810,9 @@
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O115" s="9"/>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D116" s="8">
         <f t="shared" si="4"/>
         <v>113</v>
@@ -4577,14 +4820,14 @@
       <c r="E116" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="12"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="10"/>
       <c r="I116" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J116" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="J116" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K116" s="8">
         <f t="shared" si="5"/>
@@ -4595,8 +4838,9 @@
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O116" s="9"/>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D117" s="8">
         <f t="shared" si="4"/>
         <v>114</v>
@@ -4604,14 +4848,14 @@
       <c r="E117" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="12"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="10"/>
       <c r="I117" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J117" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K117" s="8">
         <f t="shared" si="5"/>
@@ -4622,8 +4866,9 @@
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="9"/>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D118" s="8">
         <f t="shared" si="4"/>
         <v>115</v>
@@ -4631,14 +4876,14 @@
       <c r="E118" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="12"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="10"/>
       <c r="I118" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J118" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K118" s="8">
         <f t="shared" si="5"/>
@@ -4649,8 +4894,9 @@
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="9"/>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D119" s="8">
         <f t="shared" si="4"/>
         <v>116</v>
@@ -4658,14 +4904,14 @@
       <c r="E119" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="12"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="10"/>
       <c r="I119" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J119" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K119" s="8">
         <f t="shared" si="5"/>
@@ -4676,8 +4922,9 @@
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="9"/>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D120" s="8">
         <f t="shared" si="4"/>
         <v>117</v>
@@ -4685,14 +4932,14 @@
       <c r="E120" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="12"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="10"/>
       <c r="I120" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J120" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K120" s="8">
         <f t="shared" si="5"/>
@@ -4703,10 +4950,11 @@
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="9"/>
+    </row>
+    <row r="121" spans="2:15" ht="63" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>10</v>
@@ -4718,14 +4966,14 @@
       <c r="E121" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="12"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="10"/>
       <c r="I121" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K121" s="8">
         <f t="shared" ref="K121:K149" si="7">ROW()-ROW($K$3)</f>
@@ -4734,10 +4982,17 @@
       <c r="L121" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="M121" s="9"/>
-      <c r="N121" s="9"/>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M121" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="N121" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="O121" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D122" s="8">
         <f t="shared" si="6"/>
         <v>119</v>
@@ -4745,14 +5000,14 @@
       <c r="E122" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="12"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="10"/>
       <c r="I122" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K122" s="8">
         <f t="shared" si="7"/>
@@ -4763,8 +5018,9 @@
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="9"/>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D123" s="8">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -4772,14 +5028,14 @@
       <c r="E123" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="12"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="10"/>
       <c r="I123" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K123" s="8">
         <f t="shared" si="7"/>
@@ -4790,8 +5046,9 @@
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="9"/>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D124" s="8">
         <f t="shared" si="6"/>
         <v>121</v>
@@ -4799,14 +5056,14 @@
       <c r="E124" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="12"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="10"/>
       <c r="I124" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K124" s="8">
         <f t="shared" si="7"/>
@@ -4817,8 +5074,9 @@
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="9"/>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D125" s="8">
         <f t="shared" si="6"/>
         <v>122</v>
@@ -4826,14 +5084,14 @@
       <c r="E125" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="12"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="10"/>
       <c r="I125" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K125" s="8">
         <f t="shared" si="7"/>
@@ -4844,8 +5102,9 @@
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="9"/>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D126" s="8">
         <f t="shared" si="6"/>
         <v>123</v>
@@ -4853,14 +5112,14 @@
       <c r="E126" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="12"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="10"/>
       <c r="I126" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K126" s="8">
         <f t="shared" si="7"/>
@@ -4871,8 +5130,9 @@
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="9"/>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D127" s="8">
         <f t="shared" si="6"/>
         <v>124</v>
@@ -4880,14 +5140,14 @@
       <c r="E127" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="12"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="10"/>
       <c r="I127" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K127" s="8">
         <f t="shared" si="7"/>
@@ -4898,8 +5158,9 @@
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="9"/>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="9"/>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D128" s="8">
         <f t="shared" si="6"/>
         <v>125</v>
@@ -4907,14 +5168,14 @@
       <c r="E128" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="12"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="10"/>
       <c r="I128" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K128" s="8">
         <f t="shared" si="7"/>
@@ -4925,8 +5186,9 @@
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O128" s="9"/>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D129" s="8">
         <f t="shared" si="6"/>
         <v>126</v>
@@ -4934,14 +5196,14 @@
       <c r="E129" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="12"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="10"/>
       <c r="I129" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K129" s="8">
         <f t="shared" si="7"/>
@@ -4952,8 +5214,9 @@
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O129" s="9"/>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D130" s="8">
         <f t="shared" si="6"/>
         <v>127</v>
@@ -4961,14 +5224,14 @@
       <c r="E130" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="12"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="10"/>
       <c r="I130" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K130" s="8">
         <f t="shared" si="7"/>
@@ -4979,8 +5242,9 @@
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O130" s="9"/>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D131" s="8">
         <f t="shared" si="6"/>
         <v>128</v>
@@ -4988,14 +5252,14 @@
       <c r="E131" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="12"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="10"/>
       <c r="I131" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K131" s="8">
         <f t="shared" si="7"/>
@@ -5006,8 +5270,9 @@
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="9"/>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="9"/>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D132" s="8">
         <f t="shared" si="6"/>
         <v>129</v>
@@ -5015,14 +5280,14 @@
       <c r="E132" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="12"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="10"/>
       <c r="I132" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K132" s="8">
         <f t="shared" si="7"/>
@@ -5033,8 +5298,9 @@
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O132" s="9"/>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D133" s="8">
         <f t="shared" si="6"/>
         <v>130</v>
@@ -5042,14 +5308,14 @@
       <c r="E133" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="12"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="10"/>
       <c r="I133" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K133" s="8">
         <f t="shared" si="7"/>
@@ -5060,8 +5326,9 @@
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="9"/>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O133" s="9"/>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D134" s="8">
         <f t="shared" si="6"/>
         <v>131</v>
@@ -5069,14 +5336,14 @@
       <c r="E134" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="12"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="10"/>
       <c r="I134" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K134" s="8">
         <f t="shared" si="7"/>
@@ -5087,10 +5354,11 @@
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="9"/>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O134" s="9"/>
+    </row>
+    <row r="135" spans="2:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>11</v>
@@ -5102,14 +5370,14 @@
       <c r="E135" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="12"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="10"/>
       <c r="I135" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K135" s="8">
         <f t="shared" si="7"/>
@@ -5118,10 +5386,17 @@
       <c r="L135" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M135" s="9"/>
-      <c r="N135" s="9"/>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M135" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="N135" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="O135" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D136" s="8">
         <f t="shared" si="6"/>
         <v>133</v>
@@ -5129,14 +5404,14 @@
       <c r="E136" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="12"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="10"/>
       <c r="I136" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K136" s="8">
         <f t="shared" si="7"/>
@@ -5147,8 +5422,9 @@
       </c>
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O136" s="9"/>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D137" s="8">
         <f t="shared" si="6"/>
         <v>134</v>
@@ -5156,14 +5432,14 @@
       <c r="E137" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="12"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="10"/>
       <c r="I137" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K137" s="8">
         <f t="shared" si="7"/>
@@ -5174,8 +5450,9 @@
       </c>
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O137" s="9"/>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D138" s="8">
         <f t="shared" si="6"/>
         <v>135</v>
@@ -5183,14 +5460,14 @@
       <c r="E138" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="12"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="10"/>
       <c r="I138" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K138" s="8">
         <f t="shared" si="7"/>
@@ -5201,8 +5478,9 @@
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="9"/>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O138" s="9"/>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D139" s="8">
         <f t="shared" si="6"/>
         <v>136</v>
@@ -5210,14 +5488,14 @@
       <c r="E139" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="12"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="10"/>
       <c r="I139" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K139" s="8">
         <f t="shared" si="7"/>
@@ -5228,8 +5506,9 @@
       </c>
       <c r="M139" s="9"/>
       <c r="N139" s="9"/>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O139" s="9"/>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D140" s="8">
         <f t="shared" si="6"/>
         <v>137</v>
@@ -5237,14 +5516,14 @@
       <c r="E140" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="12"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="10"/>
       <c r="I140" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K140" s="8">
         <f t="shared" si="7"/>
@@ -5255,8 +5534,9 @@
       </c>
       <c r="M140" s="9"/>
       <c r="N140" s="9"/>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O140" s="9"/>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D141" s="8">
         <f t="shared" si="6"/>
         <v>138</v>
@@ -5264,14 +5544,14 @@
       <c r="E141" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="12"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="10"/>
       <c r="I141" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K141" s="8">
         <f t="shared" si="7"/>
@@ -5282,8 +5562,9 @@
       </c>
       <c r="M141" s="9"/>
       <c r="N141" s="9"/>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O141" s="9"/>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D142" s="8">
         <f t="shared" si="6"/>
         <v>139</v>
@@ -5291,14 +5572,14 @@
       <c r="E142" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="12"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="10"/>
       <c r="I142" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K142" s="8">
         <f t="shared" si="7"/>
@@ -5309,8 +5590,9 @@
       </c>
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O142" s="9"/>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D143" s="8">
         <f t="shared" si="6"/>
         <v>140</v>
@@ -5318,14 +5600,14 @@
       <c r="E143" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="12"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="10"/>
       <c r="I143" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K143" s="8">
         <f t="shared" si="7"/>
@@ -5336,8 +5618,9 @@
       </c>
       <c r="M143" s="9"/>
       <c r="N143" s="9"/>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O143" s="9"/>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D144" s="8">
         <f t="shared" si="6"/>
         <v>141</v>
@@ -5345,14 +5628,14 @@
       <c r="E144" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="12"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="10"/>
       <c r="I144" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K144" s="8">
         <f t="shared" si="7"/>
@@ -5363,8 +5646,9 @@
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="9"/>
-    </row>
-    <row r="145" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O144" s="9"/>
+    </row>
+    <row r="145" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D145" s="8">
         <f t="shared" si="6"/>
         <v>142</v>
@@ -5372,14 +5656,14 @@
       <c r="E145" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="12"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="10"/>
       <c r="I145" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K145" s="8">
         <f t="shared" si="7"/>
@@ -5390,8 +5674,9 @@
       </c>
       <c r="M145" s="9"/>
       <c r="N145" s="9"/>
-    </row>
-    <row r="146" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O145" s="9"/>
+    </row>
+    <row r="146" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D146" s="8">
         <f t="shared" si="6"/>
         <v>143</v>
@@ -5399,14 +5684,14 @@
       <c r="E146" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="12"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="10"/>
       <c r="I146" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K146" s="8">
         <f t="shared" si="7"/>
@@ -5417,8 +5702,9 @@
       </c>
       <c r="M146" s="9"/>
       <c r="N146" s="9"/>
-    </row>
-    <row r="147" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O146" s="9"/>
+    </row>
+    <row r="147" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D147" s="8">
         <f t="shared" si="6"/>
         <v>144</v>
@@ -5426,14 +5712,14 @@
       <c r="E147" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="12"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="10"/>
       <c r="I147" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K147" s="8">
         <f t="shared" si="7"/>
@@ -5444,8 +5730,9 @@
       </c>
       <c r="M147" s="9"/>
       <c r="N147" s="9"/>
-    </row>
-    <row r="148" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O147" s="9"/>
+    </row>
+    <row r="148" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D148" s="8">
         <f t="shared" si="6"/>
         <v>145</v>
@@ -5453,14 +5740,14 @@
       <c r="E148" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="12"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="10"/>
       <c r="I148" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K148" s="8">
         <f t="shared" si="7"/>
@@ -5471,8 +5758,9 @@
       </c>
       <c r="M148" s="9"/>
       <c r="N148" s="9"/>
-    </row>
-    <row r="149" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="O148" s="9"/>
+    </row>
+    <row r="149" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D149" s="8">
         <f t="shared" si="6"/>
         <v>146</v>
@@ -5480,14 +5768,14 @@
       <c r="E149" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="12"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="10"/>
       <c r="I149" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K149" s="8">
         <f t="shared" si="7"/>
@@ -5498,6 +5786,7 @@
       </c>
       <c r="M149" s="9"/>
       <c r="N149" s="9"/>
+      <c r="O149" s="9"/>
     </row>
   </sheetData>
   <dataConsolidate/>
